--- a/SBBI Data for Capital Markets (2022_11_11).xlsx
+++ b/SBBI Data for Capital Markets (2022_11_11).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuao/Documents/PSTAT296A/pstat296/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D18551-5ED3-0E49-B5DB-7ADB6D531692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71D28C-3132-DE46-93DC-C4A8F4C7F8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="620" windowWidth="24120" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="B3:J1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -34451,6 +34451,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F3:F4 F5:F6" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -67974,7 +67977,7 @@
   <dimension ref="B3:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
